--- a/product_data/supporting_information/methods/Method.xlsx
+++ b/product_data/supporting_information/methods/Method.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE.v0/data_aggregation/Metadata/methods/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/supporting_information/methods/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{EA486038-46CE-4643-ACFF-51A8D543000D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3522BD69-B91D-47CE-8644-DE8665AB9308}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{EA486038-46CE-4643-ACFF-51A8D543000D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3522BD69-B91D-47CE-8644-DE8665AB9308}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{150FAAAD-24CB-471C-BA4B-A375FC2F87AC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{150FAAAD-24CB-471C-BA4B-A375FC2F87AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -567,7 +567,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
